--- a/theoretical_angles.xlsx
+++ b/theoretical_angles.xlsx
@@ -1721,7 +1721,7 @@
         <v>45978.3125</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.2693577096561477</v>
+        <v>0</v>
       </c>
       <c r="C92" t="n">
         <v>0.1342129738823796</v>
@@ -1735,7 +1735,7 @@
         <v>45978.31597222222</v>
       </c>
       <c r="B93" t="n">
-        <v>-2.00455414329913</v>
+        <v>0</v>
       </c>
       <c r="C93" t="n">
         <v>0.9913198682233082</v>
@@ -1749,7 +1749,7 @@
         <v>45978.31944444445</v>
       </c>
       <c r="B94" t="n">
-        <v>-3.758501115319063</v>
+        <v>0</v>
       </c>
       <c r="C94" t="n">
         <v>1.842396560318718</v>
@@ -1763,7 +1763,7 @@
         <v>45978.32291666666</v>
       </c>
       <c r="B95" t="n">
-        <v>-5.537833816766967</v>
+        <v>0</v>
       </c>
       <c r="C95" t="n">
         <v>2.687218894432678</v>
@@ -1777,7 +1777,7 @@
         <v>45978.32638888889</v>
       </c>
       <c r="B96" t="n">
-        <v>-7.349753458979952</v>
+        <v>0</v>
       </c>
       <c r="C96" t="n">
         <v>3.525557214026507</v>
@@ -1791,7 +1791,7 @@
         <v>45978.32986111111</v>
       </c>
       <c r="B97" t="n">
-        <v>-9.202228753169219</v>
+        <v>0</v>
       </c>
       <c r="C97" t="n">
         <v>4.357176172458219</v>
@@ -1805,7 +1805,7 @@
         <v>45978.33333333334</v>
       </c>
       <c r="B98" t="n">
-        <v>-11.1042491550333</v>
+        <v>0</v>
       </c>
       <c r="C98" t="n">
         <v>5.181834550684542</v>
@@ -1819,7 +1819,7 @@
         <v>45978.33680555555</v>
       </c>
       <c r="B99" t="n">
-        <v>-13.06615384288178</v>
+        <v>-1.298250185276238</v>
       </c>
       <c r="C99" t="n">
         <v>5.999285082894601</v>
@@ -1833,7 +1833,7 @@
         <v>45978.34027777778</v>
       </c>
       <c r="B100" t="n">
-        <v>-15.10007252829879</v>
+        <v>-3.146818818675677</v>
       </c>
       <c r="C100" t="n">
         <v>6.809274291301675</v>
@@ -1847,7 +1847,7 @@
         <v>45978.34375</v>
       </c>
       <c r="B101" t="n">
-        <v>-17.22053456392646</v>
+        <v>-5.026522139895531</v>
       </c>
       <c r="C101" t="n">
         <v>7.611542331255504</v>
@@ -1861,7 +1861,7 @@
         <v>45978.34722222222</v>
       </c>
       <c r="B102" t="n">
-        <v>-19.4453382005584</v>
+        <v>-6.945899584496282</v>
       </c>
       <c r="C102" t="n">
         <v>8.405822848167309</v>
@@ -1875,7 +1875,7 @@
         <v>45978.35069444445</v>
       </c>
       <c r="B103" t="n">
-        <v>-21.79683603011373</v>
+        <v>-8.914516832855055</v>
       </c>
       <c r="C103" t="n">
         <v>9.191842847731275</v>
@@ -1889,7 +1889,7 @@
         <v>45978.35416666666</v>
       </c>
       <c r="B104" t="n">
-        <v>-24.30391531851853</v>
+        <v>-10.94331492635729</v>
       </c>
       <c r="C104" t="n">
         <v>9.969322581236275</v>
@@ -1903,7 +1903,7 @@
         <v>45978.35763888889</v>
       </c>
       <c r="B105" t="n">
-        <v>-27.00520181337749</v>
+        <v>-13.04507487530112</v>
       </c>
       <c r="C105" t="n">
         <v>10.73797544773617</v>
@@ -1917,7 +1917,7 @@
         <v>45978.36111111111</v>
       </c>
       <c r="B106" t="n">
-        <v>-29.95456654479683</v>
+        <v>-15.23505691447275</v>
       </c>
       <c r="C106" t="n">
         <v>11.49750791520491</v>
@@ -1931,7 +1931,7 @@
         <v>45978.36458333334</v>
       </c>
       <c r="B107" t="n">
-        <v>-33.23135863754641</v>
+        <v>-17.5319104023263</v>
       </c>
       <c r="C107" t="n">
         <v>12.24761946280186</v>
@@ -1945,7 +1945,7 @@
         <v>45978.36805555555</v>
       </c>
       <c r="B108" t="n">
-        <v>-36.96153190338522</v>
+        <v>-19.95901723258247</v>
       </c>
       <c r="C108" t="n">
         <v>12.98800254660141</v>
@@ -1959,7 +1959,7 @@
         <v>45978.37152777778</v>
       </c>
       <c r="B109" t="n">
-        <v>-41.3684344950607</v>
+        <v>-22.54655944927309</v>
       </c>
       <c r="C109" t="n">
         <v>13.71834259132062</v>
@@ -1973,7 +1973,7 @@
         <v>45978.375</v>
       </c>
       <c r="B110" t="n">
-        <v>-46.92898523166041</v>
+        <v>-25.33486209047555</v>
       </c>
       <c r="C110" t="n">
         <v>14.43831801066413</v>
@@ -1987,7 +1987,7 @@
         <v>45978.37847222222</v>
       </c>
       <c r="B111" t="n">
-        <v>-52.00000000000001</v>
+        <v>-28.38013603880827</v>
       </c>
       <c r="C111" t="n">
         <v>15.14760025910008</v>
@@ -2001,7 +2001,7 @@
         <v>45978.38194444445</v>
       </c>
       <c r="B112" t="n">
-        <v>-52.00000000000001</v>
+        <v>-31.76514398026902</v>
       </c>
       <c r="C112" t="n">
         <v>15.84585391796502</v>
@@ -2015,7 +2015,7 @@
         <v>45978.38541666666</v>
       </c>
       <c r="B113" t="n">
-        <v>-52.00000000000001</v>
+        <v>-35.62120684270655</v>
       </c>
       <c r="C113" t="n">
         <v>16.5327368189918</v>
@@ -2029,7 +2029,7 @@
         <v>45978.38888888889</v>
       </c>
       <c r="B114" t="n">
-        <v>-52.00000000000001</v>
+        <v>-40.18105614013837</v>
       </c>
       <c r="C114" t="n">
         <v>17.20790020827958</v>
@@ -2043,7 +2043,7 @@
         <v>45978.39236111111</v>
       </c>
       <c r="B115" t="n">
-        <v>-52.00000000000001</v>
+        <v>-45.94106309239643</v>
       </c>
       <c r="C115" t="n">
         <v>17.87098895400328</v>
@@ -3023,7 +3023,7 @@
         <v>45978.63541666666</v>
       </c>
       <c r="B185" t="n">
-        <v>52.00000000000001</v>
+        <v>48.5518813274789</v>
       </c>
       <c r="C185" t="n">
         <v>18.08581133864172</v>
@@ -3037,7 +3037,7 @@
         <v>45978.63888888889</v>
       </c>
       <c r="B186" t="n">
-        <v>52.00000000000001</v>
+        <v>42.08418625729313</v>
       </c>
       <c r="C186" t="n">
         <v>17.42671303352472</v>
@@ -3051,7 +3051,7 @@
         <v>45978.64236111111</v>
       </c>
       <c r="B187" t="n">
-        <v>52.00000000000001</v>
+        <v>37.16410671319731</v>
       </c>
       <c r="C187" t="n">
         <v>16.75541801609237</v>
@@ -3065,7 +3065,7 @@
         <v>45978.64583333334</v>
       </c>
       <c r="B188" t="n">
-        <v>52.00000000000001</v>
+        <v>33.08303622029231</v>
       </c>
       <c r="C188" t="n">
         <v>16.07228330354802</v>
@@ -3079,7 +3079,7 @@
         <v>45978.64930555555</v>
       </c>
       <c r="B189" t="n">
-        <v>52.00000000000001</v>
+        <v>29.5421008961771</v>
       </c>
       <c r="C189" t="n">
         <v>15.3776596070399</v>
@@ -3093,7 +3093,7 @@
         <v>45978.65277777778</v>
       </c>
       <c r="B190" t="n">
-        <v>49.38107964142088</v>
+        <v>26.38176840077322</v>
       </c>
       <c r="C190" t="n">
         <v>14.67189110851001</v>
@@ -3107,7 +3107,7 @@
         <v>45978.65625</v>
       </c>
       <c r="B191" t="n">
-        <v>43.15911153315019</v>
+        <v>23.50495613401197</v>
       </c>
       <c r="C191" t="n">
         <v>13.95531528224511</v>
@@ -3121,7 +3121,7 @@
         <v>45978.65972222222</v>
       </c>
       <c r="B192" t="n">
-        <v>38.41517418124962</v>
+        <v>20.84731924947667</v>
       </c>
       <c r="C192" t="n">
         <v>13.22826275800237</v>
@@ -3135,7 +3135,7 @@
         <v>45978.66319444445</v>
       </c>
       <c r="B193" t="n">
-        <v>34.47423240832915</v>
+        <v>18.363532827583</v>
       </c>
       <c r="C193" t="n">
         <v>12.49105722247191</v>
@@ -3149,7 +3149,7 @@
         <v>45978.66666666666</v>
       </c>
       <c r="B194" t="n">
-        <v>31.05119331657649</v>
+        <v>16.02015681576905</v>
       </c>
       <c r="C194" t="n">
         <v>11.74401535609275</v>
@@ -3163,7 +3163,7 @@
         <v>45978.67013888889</v>
       </c>
       <c r="B195" t="n">
-        <v>27.9937637898126</v>
+        <v>13.79158981342954</v>
       </c>
       <c r="C195" t="n">
         <v>10.98744680219868</v>
@@ -3177,7 +3177,7 @@
         <v>45978.67361111111</v>
       </c>
       <c r="B196" t="n">
-        <v>25.20922170576948</v>
+        <v>11.65761746685981</v>
       </c>
       <c r="C196" t="n">
         <v>10.22165416569629</v>
@@ -3191,7 +3191,7 @@
         <v>45978.67708333334</v>
       </c>
       <c r="B197" t="n">
-        <v>22.63609707140832</v>
+        <v>9.601846294380657</v>
       </c>
       <c r="C197" t="n">
         <v>9.44693303853804</v>
@@ -3205,7 +3205,7 @@
         <v>45978.68055555555</v>
       </c>
       <c r="B198" t="n">
-        <v>20.23109062290576</v>
+        <v>7.610658123528257</v>
       </c>
       <c r="C198" t="n">
         <v>8.663572049470725</v>
@@ -3219,7 +3219,7 @@
         <v>45978.68402777778</v>
       </c>
       <c r="B199" t="n">
-        <v>17.96226747279071</v>
+        <v>5.672484927414731</v>
       </c>
       <c r="C199" t="n">
         <v>7.871852935632523</v>
@@ -3233,7 +3233,7 @@
         <v>45978.6875</v>
       </c>
       <c r="B200" t="n">
-        <v>15.80519665681281</v>
+        <v>3.777288114546872</v>
       </c>
       <c r="C200" t="n">
         <v>7.072050633751983</v>
@@ -3247,7 +3247,7 @@
         <v>45978.69097222222</v>
       </c>
       <c r="B201" t="n">
-        <v>13.74061223183632</v>
+        <v>1.916171935126162</v>
       </c>
       <c r="C201" t="n">
         <v>6.26443338891137</v>
@@ -3261,7 +3261,7 @@
         <v>45978.69444444445</v>
       </c>
       <c r="B202" t="n">
-        <v>11.75291972423909</v>
+        <v>0.08108649100849533</v>
       </c>
       <c r="C202" t="n">
         <v>5.449262878880944</v>
@@ -3275,7 +3275,7 @@
         <v>45978.69791666666</v>
       </c>
       <c r="B203" t="n">
-        <v>9.829200032159005</v>
+        <v>0</v>
       </c>
       <c r="C203" t="n">
         <v>4.626794352326617</v>
@@ -3289,7 +3289,7 @@
         <v>45978.70138888889</v>
       </c>
       <c r="B204" t="n">
-        <v>7.958519879269706</v>
+        <v>0</v>
       </c>
       <c r="C204" t="n">
         <v>3.797276779232905</v>
@@ -3303,7 +3303,7 @@
         <v>45978.70486111111</v>
       </c>
       <c r="B205" t="n">
-        <v>6.131438333447274</v>
+        <v>0</v>
       </c>
       <c r="C205" t="n">
         <v>2.960953012114528</v>
@@ -3317,7 +3317,7 @@
         <v>45978.70833333334</v>
       </c>
       <c r="B206" t="n">
-        <v>4.339642469328552</v>
+        <v>0</v>
       </c>
       <c r="C206" t="n">
         <v>2.118059956670189</v>
@@ -3331,7 +3331,7 @@
         <v>45978.71180555555</v>
       </c>
       <c r="B207" t="n">
-        <v>2.575669969415002</v>
+        <v>0</v>
       </c>
       <c r="C207" t="n">
         <v>1.268828750743353</v>
@@ -3345,7 +3345,7 @@
         <v>45978.71527777778</v>
       </c>
       <c r="B208" t="n">
-        <v>0.8326910133354283</v>
+        <v>0</v>
       </c>
       <c r="C208" t="n">
         <v>0.4134849505112363</v>
